--- a/medicine/Mort/Cimetière_de_Fresnes/Cimetière_de_Fresnes.xlsx
+++ b/medicine/Mort/Cimetière_de_Fresnes/Cimetière_de_Fresnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Fresnes</t>
+          <t>Cimetière_de_Fresnes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Fresnes est le cimetière municipal de la commune de Fresnes dans le Val-de-Marne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Fresnes</t>
+          <t>Cimetière_de_Fresnes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès la construction de la prison de Fresnes en 1898, il est affecté à l'inhumation des détenus[1]. Aujourd'hui typique d'un cimetière de banlieue, il ne présente encore qu'un intérêt architectural modeste, la majeure partie des sépultures étant de forme standard moderne. On y trouve contre le mur d'enceinte les sépultures de soldats de la division Leclerc tombés le 24 août 1944.
-Il dispose d’un jardin du souvenir permettant de disperser les cendres des défunts[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès la construction de la prison de Fresnes en 1898, il est affecté à l'inhumation des détenus. Aujourd'hui typique d'un cimetière de banlieue, il ne présente encore qu'un intérêt architectural modeste, la majeure partie des sépultures étant de forme standard moderne. On y trouve contre le mur d'enceinte les sépultures de soldats de la division Leclerc tombés le 24 août 1944.
+Il dispose d’un jardin du souvenir permettant de disperser les cendres des défunts.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Fresnes</t>
+          <t>Cimetière_de_Fresnes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,15 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Madeleine Brohan (1833-1900), comédienne, sa mère Augustine-Suzanne Brohan (1807-1887), également comédienne, sa grand-mère maternelle Élisabeth Sophie Brohan et son fils aîné Pierre Uchard[3].
-Berty Albrecht selon certaines sources[4]. Son corps a par la suite été translaté dans le Mémorial de la France combattante.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Madeleine Brohan (1833-1900), comédienne, sa mère Augustine-Suzanne Brohan (1807-1887), également comédienne, sa grand-mère maternelle Élisabeth Sophie Brohan et son fils aîné Pierre Uchard.
+Berty Albrecht selon certaines sources. Son corps a par la suite été translaté dans le Mémorial de la France combattante.
 Albert Roper (1891-1969), aviateur et juriste, « créateur du droit aérien international », comme indiqué sur sa tombe.
-Paul Touvier (1915-1996)[5],[6], collaborationniste mort à la prison de Fresnes, inhumé le 25 juillet[7].
-Plusieurs combattants morts lors de l'attaque de la prison de Fresnes pendant la Libération de Paris[8] : José Molina[9], François Mamo, Fernand Meunier[10], Georges Landrieux[11].</t>
+Paul Touvier (1915-1996) collaborationniste mort à la prison de Fresnes, inhumé le 25 juillet.
+Plusieurs combattants morts lors de l'attaque de la prison de Fresnes pendant la Libération de Paris : José Molina, François Mamo, Fernand Meunier, Georges Landrieux.</t>
         </is>
       </c>
     </row>
